--- a/biology/Médecine/Os_spongieux/Os_spongieux.xlsx
+++ b/biology/Médecine/Os_spongieux/Os_spongieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os spongieux (ou os trabéculaire ou tissu spongieux ou substance spongieuse) est un tissu osseux  constitutif des os. Il est formé de lamelles osseuses organisées en trabécules et en petites cavités. 
 Il ne possèdent pas de système de Havers.
@@ -516,7 +528,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os spongieux est le plus touché par l'ostéoporose.
 </t>
